--- a/biology/Botanique/Bergenia_crassifolia/Bergenia_crassifolia.xlsx
+++ b/biology/Botanique/Bergenia_crassifolia/Bergenia_crassifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bergenia crassifolia, la Bergénie à feuilles charnues, ou Bergénie ou l'Oreille-d'Éléphant[1] est une plante herbacées de la famille des Saxifragaceae, originaire de Sibérie, d'usage horticole. Le nom synonyme Bergenia cordifolia Sternb. encore employé, a dû laisser la place à Bergenia crassifolia (L.) Fritsch, seul accepté maintenant par The Plant List[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bergenia crassifolia, la Bergénie à feuilles charnues, ou Bergénie ou l'Oreille-d'Éléphant est une plante herbacées de la famille des Saxifragaceae, originaire de Sibérie, d'usage horticole. Le nom synonyme Bergenia cordifolia Sternb. encore employé, a dû laisser la place à Bergenia crassifolia (L.) Fritsch, seul accepté maintenant par The Plant List.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Étymologie et histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Bergenia a été établi par Conrad Moench, pour rendre hommage à l'anatomiste et botaniste Karl August von Bergen (1704-1759). L'épithète spécifique crassifolia se compose des étymons latins crassus « épais » et folium « feuilles ».
-Linné décrit un spécimen de la plante, venu de Sibérie, en 1753 (Species Plantarum[3], p. 401) sous le nom de Saxifraga crassifolia. En 1889, Karl Fritsch reclassa la plante dans le genre Bergenia dont les feuilles sont toutes basales.
+Linné décrit un spécimen de la plante, venu de Sibérie, en 1753 (Species Plantarum, p. 401) sous le nom de Saxifraga crassifolia. En 1889, Karl Fritsch reclassa la plante dans le genre Bergenia dont les feuilles sont toutes basales.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le type sauvage de Bergenia crassifolia est une plante herbacée, pérenne, de 15-20 cm de haut[4], pourvue d'un gros rhizome.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le type sauvage de Bergenia crassifolia est une plante herbacée, pérenne, de 15-20 cm de haut, pourvue d'un gros rhizome.
 Les feuilles toutes basales, sont portées par un pétiole de 3-9 cm, engainant à la base le rhizome. Leur limbe est obovale ou elliptique, de 5-13 x 3,5-10 cm, coriace, glabre, avec une marge sinuée-dentée et l'apex obtus.
 L'inflorescence cymeuse, de 4-13 cm de haut, dressée, comporte de nombreuses fleurs. La fleur est formée - de 5 sépales érigés, obovales, coriaces,- de 5 pétales pourpres, elliptiques à largement ovales, de 7-8 x 5 mm,- de 10 étamines (opposés alternativement aux sépales et aux pétales, disposées en 2 verticilles),- d'un ovaire formé de deux carpelles soudés à la base, portant chacun un style.
 La floraison s'étale sur les mois de février-mars-avril.
@@ -578,7 +594,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Bergenia crassifolia croît dans les forêts, dans les crevasses de rochers, en Russie (Sibérie : Altay, Buryatia, Chita, Gorno-Altay, Irkoutsk, Kemerovo, Krasnoyarsk, Tuva, Yakutia-Sakha), en Chine (Xinjiang), en Corée du Nord, en Mongolie, et au Kazakhstan.
 </t>
@@ -609,15 +627,17 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>D'après INPN[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>D'après INPN :
 Saxifraga crassifolia L., 1753 (basionyme, première description par Linné)
 Bergenia bifolia Moench, 1794
 Megasea crassifolia (L.) Haw., 1821
 Piarophyla elliptica Raf., 1837
 Piarophyla sibirica Raf., 1837
-The Plant List retient les synonymes suivants[2] :
+The Plant List retient les synonymes suivants :
 Bergenia bifolia Moench
 Bergenia biflora var. hawortiana (Ser.) Engl.
 Bergenia cordifolia (Haw.) Sternb.
@@ -656,22 +676,97 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Horticulture
-La bergénie à feuilles charnues est une plante ornementale, au feuillage persistant, peu exigeante et donc facile à cultiver. Les plantes cultivées sont plus vigoureuses que le type sauvage et atteignent 40-50 cm de haut.
+          <t>Horticulture</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La bergénie à feuilles charnues est une plante ornementale, au feuillage persistant, peu exigeante et donc facile à cultiver. Les plantes cultivées sont plus vigoureuses que le type sauvage et atteignent 40-50 cm de haut.
 Elle apprécie les sols humifères et frais, à la mi-ombre ou à l'ombre. Elle vient en plein soleil dans un sol frais.
 Elle résiste bien au gel, puisqu'elle peut supporter −15 °C.
 Elle constitue un excellent couvre-sol, notamment en sous-bois de feuillus et aux bords des bassins.
 Elle fleurit en février-mars-avril.
 Il existe de nombreux cultivars aux fleurs blanches, roses ou rouges.
-Boisson
-Les feuilles de bergénie servent à fabriquer une infusion, connue sous le nom de thé de Sibérie[5]. Jadis consommée par les populations de Sibérie et Mongolie, c'est une infusion brune, légèrement astringente.
-Pharmacologie
-Parmi les métabolites secondaires de Bergenia crassifolia, on trouve[6] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bergenia_crassifolia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergenia_crassifolia</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Boisson</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles de bergénie servent à fabriquer une infusion, connue sous le nom de thé de Sibérie. Jadis consommée par les populations de Sibérie et Mongolie, c'est une infusion brune, légèrement astringente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Bergenia_crassifolia</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bergenia_crassifolia</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Usages</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Pharmacologie</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parmi les métabolites secondaires de Bergenia crassifolia, on trouve :
 Bergenine (en), ou cuscutine, un O-glycoside de l'éther 4-O-méthylique de l'acide gallique, très abondant dans les Saxifragacées et les Euphorbiacées. La molécule a une activité anti-hépatite C in vitro.
 Arbutine ou arbutoside hydroquinone β-D-glucopyranoside, un composé qui inhibe la formation de la mélanine.
 Gallotanins, des tanins qui sont utilisés dans les processus de teinture des fibres de coton, dans la conservation des métaux ferreux, dans la clarification de la bière etc.
-des flavonoïdes : Kaempférol 3-lathyroside, Catéchol 3-O-gallate[7].
-L'extrait de feuilles de B. crassifolia est un coupe-faim utilisé pour prévenir l'obésité et améliorer la tolérance au glucose sans affecter le niveau de cholestérol[8].
+des flavonoïdes : Kaempférol 3-lathyroside, Catéchol 3-O-gallate.
+L'extrait de feuilles de B. crassifolia est un coupe-faim utilisé pour prévenir l'obésité et améliorer la tolérance au glucose sans affecter le niveau de cholestérol.
 </t>
         </is>
       </c>
